--- a/Mechanics/3D_model/PID_demensions.xlsx
+++ b/Mechanics/3D_model/PID_demensions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>blade_radius</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>motor_blade_offset</t>
+  </si>
+  <si>
+    <t>M4_screw_innerHex_cap_diam</t>
+  </si>
+  <si>
+    <t>M4_screw_innerHex_cap_height</t>
+  </si>
+  <si>
+    <t>M4_nut_lock_width</t>
+  </si>
+  <si>
+    <t>M4_nut_lock_height</t>
   </si>
 </sst>
 </file>
@@ -358,7 +370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -366,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -459,6 +471,38 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mechanics/3D_model/PID_demensions.xlsx
+++ b/Mechanics/3D_model/PID_demensions.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
